--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="316">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:42:39+00:00</t>
+    <t>2025-01-31T13:30:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/StructureDefinition/FrSlot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-slot</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: iCalendar</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -251,7 +260,13 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>(refer to the Availability resource for the header mapping details)</t>
   </si>
   <si>
     <t>Slot.id</t>
@@ -295,499 +310,521 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Slot.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Slot.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Slot.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Slot.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Slot.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Slot.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Slot.meta.profile:fr-canonical</t>
+  </si>
+  <si>
+    <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Slot.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>type de créneau : public, SNP</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typecreneau</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Slot.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Slot.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Slot.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Slot.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Slot.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Slot.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Slot.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Slot.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this item</t>
+  </si>
+  <si>
+    <t>External Ids for this item.</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Slot.identifier.id</t>
+  </si>
+  <si>
+    <t>Slot.identifier.extension</t>
+  </si>
+  <si>
+    <t>Slot.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Slot.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Slot.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Slot.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Slot.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Slot.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Slot.serviceType</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Slot.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Slot.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Slot.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Slot.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Slot.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Slot.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Slot.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>type de créneau : public, SNP</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-sos-valueset-typecreneau</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Slot.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Slot.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Slot.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Slot.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Slot.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Slot.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Slot.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Slot.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this item</t>
-  </si>
-  <si>
-    <t>External Ids for this item.</t>
-  </si>
-  <si>
-    <t>Slot.identifier.id</t>
-  </si>
-  <si>
-    <t>Slot.identifier.extension</t>
-  </si>
-  <si>
-    <t>Slot.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Slot.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Slot.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>Slot.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>Slot.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>Slot.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>Slot.serviceCategory</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>Slot.serviceType</t>
-  </si>
-  <si>
-    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource</t>
-  </si>
-  <si>
-    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.extension</t>
-  </si>
-  <si>
     <t>Slot.serviceType.coding</t>
   </si>
   <si>
@@ -809,6 +846,9 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
     <t>Slot.serviceType.text</t>
   </si>
   <si>
@@ -827,6 +867,9 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Slot.specialty</t>
   </si>
   <si>
@@ -836,10 +879,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
-  </si>
-  <si>
-    <t>http://interopsante.org/fhir/ValueSet/fr-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
   </si>
   <si>
     <t>Slot.appointmentType</t>
@@ -882,9 +922,6 @@
     <t>The schedule resource that this slot defines an interval of status information.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Slot.status</t>
   </si>
   <si>
@@ -894,18 +931,15 @@
     <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>The free/busy status of the slot.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/slotstatus</t>
   </si>
   <si>
+    <t>FREEBUSY;FBTYPE=(freeBusyType):19980314T233000Z/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
+  </si>
+  <si>
     <t>Slot.start</t>
   </si>
   <si>
@@ -915,7 +949,10 @@
     <t>Date/Time that the slot is to begin.</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+    <t>FREEBUSY;FBTYPE=FREE:(start)/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
   </si>
   <si>
     <t>Slot.end</t>
@@ -925,6 +962,9 @@
   </si>
   <si>
     <t>Date/Time that the slot is to conclude.</t>
+  </si>
+  <si>
+    <t>FREEBUSY:19980314T233000Z/(end) If the freeBusyType is BUSY, then this value can be excluded (as shown)</t>
   </si>
   <si>
     <t>Slot.overbooked</t>
@@ -1252,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1296,6 +1336,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="128.8359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1407,6 +1450,15 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1417,1040 +1469,1132 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>143</v>
@@ -2463,26 +2607,26 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>146</v>
@@ -2494,34 +2638,43 @@
         <v>148</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2533,26 +2686,26 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>151</v>
@@ -2565,3327 +2718,3709 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>229</v>
+        <v>97</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>236</v>
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ33" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>253</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ39" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>236</v>
+      <c r="AL40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>303</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q44" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>303</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q45" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q45" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="R45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="318">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Slot.meta.profile:sas-sos-slot-aggregator</t>
+  </si>
+  <si>
+    <t>sas-sos-slot-aggregator</t>
   </si>
   <si>
     <t>Slot.meta.security</t>
@@ -1292,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1301,9 +1307,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.49609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.61328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2571,9 +2577,11 @@
         <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2594,16 +2602,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2614,7 +2622,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2629,13 +2637,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2653,7 +2661,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2679,10 +2687,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2705,16 +2713,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2740,13 +2748,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2764,7 +2772,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2790,10 +2798,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2804,28 +2812,28 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2851,13 +2859,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -2875,13 +2883,13 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -2901,10 +2909,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2921,22 +2929,22 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2962,13 +2970,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2986,7 +2994,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3012,14 +3020,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3038,16 +3046,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3073,13 +3081,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3097,7 +3105,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3112,7 +3120,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3123,21 +3131,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3149,16 +3157,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3208,22 +3216,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3234,14 +3242,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3260,16 +3268,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3319,7 +3327,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3331,10 +3339,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3345,10 +3353,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3365,7 +3373,7 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>75</v>
@@ -3374,17 +3382,15 @@
         <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3447,7 +3453,7 @@
         <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3458,14 +3464,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3478,22 +3484,26 @@
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3541,7 +3551,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3553,24 +3563,24 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3581,7 +3591,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3590,16 +3600,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3650,47 +3660,47 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3702,17 +3712,15 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3749,31 +3757,31 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -3787,46 +3795,44 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3850,44 +3856,46 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3898,10 +3906,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3918,25 +3926,25 @@
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -3961,13 +3969,11 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -3985,7 +3991,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4000,7 +4006,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4011,10 +4017,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4037,19 +4043,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4062,7 +4068,7 @@
         <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>75</v>
@@ -4074,13 +4080,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4098,7 +4104,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4113,7 +4119,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4124,10 +4130,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4150,18 +4156,20 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4173,7 +4181,7 @@
         <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>75</v>
@@ -4209,7 +4217,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4224,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4235,10 +4243,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4261,15 +4269,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4282,7 +4292,7 @@
         <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4318,7 +4328,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4333,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4344,10 +4354,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4370,17 +4380,15 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4429,7 +4437,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4444,7 +4452,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4455,10 +4463,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4481,15 +4489,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4514,11 +4524,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4542,7 +4554,7 @@
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -4551,21 +4563,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4576,7 +4588,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4588,13 +4600,13 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4621,11 +4633,11 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4643,7 +4655,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4664,15 +4676,15 @@
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4683,7 +4695,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4692,16 +4704,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4728,13 +4740,11 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -4752,47 +4762,47 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4804,17 +4814,15 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4851,34 +4859,34 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4896,7 +4904,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4912,23 +4920,21 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>106</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -4952,29 +4958,31 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4983,13 +4991,13 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5000,10 +5008,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5014,7 +5022,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5026,19 +5034,19 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5063,13 +5071,11 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5087,22 +5093,22 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5113,10 +5119,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5127,7 +5133,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5139,16 +5145,20 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5172,11 +5182,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5200,30 +5212,30 @@
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5234,7 +5246,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5246,13 +5258,13 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5279,11 +5291,11 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5301,13 +5313,13 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
@@ -5322,15 +5334,15 @@
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5350,16 +5362,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5386,13 +5398,11 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5410,7 +5420,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5422,35 +5432,35 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5462,17 +5472,15 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5509,34 +5517,34 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5547,14 +5555,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5570,23 +5578,21 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>106</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5610,29 +5616,31 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5641,13 +5649,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5672,7 +5680,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5684,19 +5692,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5721,13 +5729,11 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -5745,22 +5751,22 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5771,10 +5777,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5782,7 +5788,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>85</v>
@@ -5797,16 +5803,20 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5854,22 +5864,22 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5880,10 +5890,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5906,13 +5916,13 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5924,7 +5934,7 @@
         <v>75</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>75</v>
@@ -5939,11 +5949,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -5961,7 +5973,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>85</v>
@@ -5979,7 +5991,7 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -5987,10 +5999,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6013,13 +6025,13 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6031,7 +6043,7 @@
         <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>75</v>
@@ -6046,13 +6058,11 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6070,7 +6080,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>85</v>
@@ -6088,18 +6098,18 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>303</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6125,10 +6135,10 @@
         <v>120</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6179,7 +6189,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>85</v>
@@ -6197,18 +6207,18 @@
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6216,7 +6226,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>85</v>
@@ -6228,25 +6238,23 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6290,10 +6298,10 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>85</v>
@@ -6308,18 +6316,18 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6342,20 +6350,22 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="R46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6399,7 +6409,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6420,6 +6430,115 @@
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Slot, dérivé de FrSlot, pour le service d’agrégation de créneaux de la plateforme SAS - cas d’usage SOS Médecins</t>
+    <t>Profil de Slot, dérivé de FrSlot, pour le service d'agrégation de créneaux de la plateforme SAS [cas d'usage SOS Médecins]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
